--- a/7R_Mart/src/main/resources/TestData.xlsx
+++ b/7R_Mart/src/main/resources/TestData.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\7R_Mart\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\7_R_Mart\7R_Mart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202FAD0A-2964-49E2-964C-F2E53E20D8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA228C1B-B398-42A8-AAB3-5C9130952D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="1950" windowWidth="15375" windowHeight="7995" xr2:uid="{503B27D2-705E-4B23-947D-36F62D891A9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{503B27D2-705E-4B23-947D-36F62D891A9D}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ManageDeliveryBoy" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageSlider" sheetId="3" r:id="rId3"/>
+    <sheet name="MenuPage" sheetId="4" r:id="rId4"/>
+    <sheet name="PushNotificationPage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Correct Username</t>
   </si>
@@ -35,19 +38,106 @@
   </si>
   <si>
     <t>Correct Password</t>
+  </si>
+  <si>
+    <t>Incorrect Username</t>
+  </si>
+  <si>
+    <t>aadmins</t>
+  </si>
+  <si>
+    <t>Incorrect Password</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Camden Abernathy</t>
+  </si>
+  <si>
+    <t>DeliveryBoyName</t>
+  </si>
+  <si>
+    <t>newDeliveryBoyName</t>
+  </si>
+  <si>
+    <t>Anuj</t>
+  </si>
+  <si>
+    <t>anuj@gmail.com</t>
+  </si>
+  <si>
+    <t>deliveryBoyEmail</t>
+  </si>
+  <si>
+    <t>deliveryBoyPhoneNumber</t>
+  </si>
+  <si>
+    <t>deliveryBoyAddress</t>
+  </si>
+  <si>
+    <t>ABC House Trivandrum Kerala</t>
+  </si>
+  <si>
+    <t>deliveryBoyUserName</t>
+  </si>
+  <si>
+    <t>anuj@1234</t>
+  </si>
+  <si>
+    <t>deliveryBoyPassword</t>
+  </si>
+  <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in</t>
+  </si>
+  <si>
+    <t>selectedMenu</t>
+  </si>
+  <si>
+    <t>Manage Orders</t>
+  </si>
+  <si>
+    <t>enterTitleField</t>
+  </si>
+  <si>
+    <t>enterDescriptionField</t>
+  </si>
+  <si>
+    <t>Site down</t>
+  </si>
+  <si>
+    <t>This site is not responding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,8 +160,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,32 +485,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09E3581-78CE-49C2-9507-B4FE02CBC622}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA439B1-0C09-4CBA-BBBD-3D06E3D61224}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7736565717</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB5E100-8639-44D0-8DA4-92E7B6735A59}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="39" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -419,14 +694,96 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA439B1-0C09-4CBA-BBBD-3D06E3D61224}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA834F5E-4A68-4C25-AC5E-EC29F3F9926D}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBBC5A2-2191-4C92-BEE7-0FE2D31D57BC}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/7R_Mart/src/main/resources/TestData.xlsx
+++ b/7R_Mart/src/main/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\7_R_Mart\7R_Mart\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA228C1B-B398-42A8-AAB3-5C9130952D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9939566A-8405-4215-9A21-4C02B3A0A155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{503B27D2-705E-4B23-947D-36F62D891A9D}"/>
   </bookViews>
@@ -16,8 +16,10 @@
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ManageDeliveryBoy" sheetId="2" r:id="rId2"/>
     <sheet name="ManageSlider" sheetId="3" r:id="rId3"/>
-    <sheet name="MenuPage" sheetId="4" r:id="rId4"/>
-    <sheet name="PushNotificationPage" sheetId="5" r:id="rId5"/>
+    <sheet name="MobileSlider" sheetId="7" r:id="rId4"/>
+    <sheet name="ManageOrders" sheetId="8" r:id="rId5"/>
+    <sheet name="MenuPage" sheetId="4" r:id="rId6"/>
+    <sheet name="PushNotificationPage" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Correct Username</t>
   </si>
@@ -113,13 +115,28 @@
   </si>
   <si>
     <t>This site is not responding</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time From</t>
+  </si>
+  <si>
+    <t>11.45am</t>
+  </si>
+  <si>
+    <t>Time To</t>
+  </si>
+  <si>
+    <t>12.45pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +153,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -160,16 +183,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA439B1-0C09-4CBA-BBBD-3D06E3D61224}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +599,7 @@
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -581,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -589,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -597,7 +623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -605,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -613,24 +639,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3">
         <v>7736565717</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -638,7 +663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -685,7 +710,7 @@
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -695,8 +720,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA834F5E-4A68-4C25-AC5E-EC29F3F9926D}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD55DFBB-3331-40E4-8A1A-967A80855125}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -704,8 +729,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -724,24 +748,123 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971C8C63-4E26-4E44-96D4-09BC92AD6226}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6">
+        <v>12022024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA834F5E-4A68-4C25-AC5E-EC29F3F9926D}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBBC5A2-2191-4C92-BEE7-0FE2D31D57BC}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -779,7 +902,7 @@
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
     </row>
